--- a/data/demographic_model_data.xlsx
+++ b/data/demographic_model_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih-my.sharepoint.com/personal/hansencl_nih_gov1/Documents/Documents/RProjects on github/cancer_and_covid/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="8_{959544A9-0964-4660-ABAD-006F11F0B01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{891397F8-D1FF-4ABF-A5D5-9E52921BDD4A}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{959544A9-0964-4660-ABAD-006F11F0B01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4180E0FE-EA59-4316-AAA5-B33F4F9274F4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C94FD97-3462-460F-AB85-74453D0759A8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
   <si>
     <t>pop_at_risk</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>observed_deaths</t>
+  </si>
+  <si>
+    <t>attack_rate_5064</t>
+  </si>
+  <si>
+    <t>attack_lower_5064</t>
+  </si>
+  <si>
+    <t>attack_upper_5064</t>
   </si>
 </sst>
 </file>
@@ -176,9 +185,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0DF359-9075-4B4E-B196-CEF6FB45374F}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,10 +543,10 @@
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
     <col min="9" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="14" max="17" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -580,16 +590,25 @@
         <v>21</v>
       </c>
       <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -634,16 +653,25 @@
         <v>6.9</v>
       </c>
       <c r="O2">
+        <v>10.1</v>
+      </c>
+      <c r="P2">
+        <v>9.4</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -688,16 +716,25 @@
         <v>6.9</v>
       </c>
       <c r="O3">
+        <v>10.1</v>
+      </c>
+      <c r="P3">
+        <v>9.4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>-4</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -742,16 +779,25 @@
         <v>6.9</v>
       </c>
       <c r="O4">
+        <v>10.1</v>
+      </c>
+      <c r="P4">
+        <v>9.4</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="R4">
         <v>2</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>-4</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -796,16 +842,25 @@
         <v>6.9</v>
       </c>
       <c r="O5">
+        <v>10.1</v>
+      </c>
+      <c r="P5">
+        <v>9.4</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="R5">
         <v>7</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -850,16 +905,25 @@
         <v>6.9</v>
       </c>
       <c r="O6">
+        <v>10.1</v>
+      </c>
+      <c r="P6">
+        <v>9.4</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>-3</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -904,16 +968,25 @@
         <v>6.9</v>
       </c>
       <c r="O7">
+        <v>10.1</v>
+      </c>
+      <c r="P7">
+        <v>9.4</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>-6</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -958,16 +1031,25 @@
         <v>6.9</v>
       </c>
       <c r="O8">
+        <v>10.1</v>
+      </c>
+      <c r="P8">
+        <v>9.4</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="R8">
         <v>37</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>31</v>
       </c>
-      <c r="Q8">
+      <c r="T8">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1012,16 +1094,25 @@
         <v>6.9</v>
       </c>
       <c r="O9">
+        <v>10.1</v>
+      </c>
+      <c r="P9">
+        <v>9.4</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="R9">
         <v>19</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>11</v>
       </c>
-      <c r="Q9">
+      <c r="T9">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1066,16 +1157,25 @@
         <v>11.6</v>
       </c>
       <c r="O10">
+        <v>17.8</v>
+      </c>
+      <c r="P10">
+        <v>12.7</v>
+      </c>
+      <c r="Q10">
+        <v>23.2</v>
+      </c>
+      <c r="R10">
         <v>6</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>-1</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1120,16 +1220,25 @@
         <v>11.6</v>
       </c>
       <c r="O11">
+        <v>17.8</v>
+      </c>
+      <c r="P11">
+        <v>12.7</v>
+      </c>
+      <c r="Q11">
+        <v>23.2</v>
+      </c>
+      <c r="R11">
         <v>9</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>-13</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1174,16 +1283,25 @@
         <v>11.6</v>
       </c>
       <c r="O12">
+        <v>17.8</v>
+      </c>
+      <c r="P12">
+        <v>12.7</v>
+      </c>
+      <c r="Q12">
+        <v>23.2</v>
+      </c>
+      <c r="R12">
         <v>16</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>-8</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1228,16 +1346,25 @@
         <v>11.6</v>
       </c>
       <c r="O13">
+        <v>17.8</v>
+      </c>
+      <c r="P13">
+        <v>12.7</v>
+      </c>
+      <c r="Q13">
+        <v>23.2</v>
+      </c>
+      <c r="R13">
         <v>10</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>-11</v>
       </c>
-      <c r="Q13">
+      <c r="T13">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1282,16 +1409,25 @@
         <v>11.6</v>
       </c>
       <c r="O14">
+        <v>17.8</v>
+      </c>
+      <c r="P14">
+        <v>12.7</v>
+      </c>
+      <c r="Q14">
+        <v>23.2</v>
+      </c>
+      <c r="R14">
         <v>1</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>-13</v>
       </c>
-      <c r="Q14">
+      <c r="T14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1336,16 +1472,25 @@
         <v>11.6</v>
       </c>
       <c r="O15">
+        <v>17.8</v>
+      </c>
+      <c r="P15">
+        <v>12.7</v>
+      </c>
+      <c r="Q15">
+        <v>23.2</v>
+      </c>
+      <c r="R15">
         <v>1</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>-21</v>
       </c>
-      <c r="Q15">
+      <c r="T15">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1390,16 +1535,25 @@
         <v>11.6</v>
       </c>
       <c r="O16">
+        <v>17.8</v>
+      </c>
+      <c r="P16">
+        <v>12.7</v>
+      </c>
+      <c r="Q16">
+        <v>23.2</v>
+      </c>
+      <c r="R16">
         <v>128</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>104</v>
       </c>
-      <c r="Q16">
+      <c r="T16">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1444,16 +1598,25 @@
         <v>11.6</v>
       </c>
       <c r="O17">
+        <v>17.8</v>
+      </c>
+      <c r="P17">
+        <v>12.7</v>
+      </c>
+      <c r="Q17">
+        <v>23.2</v>
+      </c>
+      <c r="R17">
         <v>49</v>
       </c>
-      <c r="P17">
+      <c r="S17">
         <v>23</v>
       </c>
-      <c r="Q17">
+      <c r="T17">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1498,16 +1661,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O18">
+        <v>12.2</v>
+      </c>
+      <c r="P18">
+        <v>7.6</v>
+      </c>
+      <c r="Q18">
+        <v>18</v>
+      </c>
+      <c r="R18">
         <v>4</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <v>-3</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1552,16 +1724,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O19">
+        <v>12.2</v>
+      </c>
+      <c r="P19">
+        <v>7.6</v>
+      </c>
+      <c r="Q19">
+        <v>18</v>
+      </c>
+      <c r="R19">
         <v>0</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>-18</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1606,16 +1787,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O20">
+        <v>12.2</v>
+      </c>
+      <c r="P20">
+        <v>7.6</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20">
         <v>3</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <v>-17</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1660,16 +1850,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O21">
+        <v>12.2</v>
+      </c>
+      <c r="P21">
+        <v>7.6</v>
+      </c>
+      <c r="Q21">
+        <v>18</v>
+      </c>
+      <c r="R21">
         <v>11</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <v>-9</v>
       </c>
-      <c r="Q21">
+      <c r="T21">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1714,16 +1913,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O22">
+        <v>12.2</v>
+      </c>
+      <c r="P22">
+        <v>7.6</v>
+      </c>
+      <c r="Q22">
+        <v>18</v>
+      </c>
+      <c r="R22">
         <v>2</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <v>-11</v>
       </c>
-      <c r="Q22">
+      <c r="T22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1768,16 +1976,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O23">
+        <v>12.2</v>
+      </c>
+      <c r="P23">
+        <v>7.6</v>
+      </c>
+      <c r="Q23">
+        <v>18</v>
+      </c>
+      <c r="R23">
         <v>2</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <v>-19</v>
       </c>
-      <c r="Q23">
+      <c r="T23">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1822,16 +2039,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O24">
+        <v>12.2</v>
+      </c>
+      <c r="P24">
+        <v>7.6</v>
+      </c>
+      <c r="Q24">
+        <v>18</v>
+      </c>
+      <c r="R24">
         <v>77</v>
       </c>
-      <c r="P24">
+      <c r="S24">
         <v>61</v>
       </c>
-      <c r="Q24">
+      <c r="T24">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1876,16 +2102,25 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="O25">
+        <v>12.2</v>
+      </c>
+      <c r="P25">
+        <v>7.6</v>
+      </c>
+      <c r="Q25">
+        <v>18</v>
+      </c>
+      <c r="R25">
         <v>45</v>
       </c>
-      <c r="P25">
+      <c r="S25">
         <v>27</v>
       </c>
-      <c r="Q25">
+      <c r="T25">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1930,16 +2165,25 @@
         <v>5.4</v>
       </c>
       <c r="O26">
+        <v>9.1</v>
+      </c>
+      <c r="P26">
+        <v>6</v>
+      </c>
+      <c r="Q26">
+        <v>12.5</v>
+      </c>
+      <c r="R26">
         <v>4</v>
       </c>
-      <c r="P26">
+      <c r="S26">
         <v>-1</v>
       </c>
-      <c r="Q26">
+      <c r="T26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1984,16 +2228,25 @@
         <v>5.4</v>
       </c>
       <c r="O27">
+        <v>9.1</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>12.5</v>
+      </c>
+      <c r="R27">
         <v>2</v>
       </c>
-      <c r="P27">
+      <c r="S27">
         <v>-14</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2038,16 +2291,25 @@
         <v>5.4</v>
       </c>
       <c r="O28">
+        <v>9.1</v>
+      </c>
+      <c r="P28">
+        <v>6</v>
+      </c>
+      <c r="Q28">
+        <v>12.5</v>
+      </c>
+      <c r="R28">
         <v>2</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>-15</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2092,16 +2354,25 @@
         <v>5.4</v>
       </c>
       <c r="O29">
+        <v>9.1</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <v>12.5</v>
+      </c>
+      <c r="R29">
         <v>8</v>
       </c>
-      <c r="P29">
+      <c r="S29">
         <v>-8</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -2146,16 +2417,25 @@
         <v>5.4</v>
       </c>
       <c r="O30">
+        <v>9.1</v>
+      </c>
+      <c r="P30">
+        <v>6</v>
+      </c>
+      <c r="Q30">
+        <v>12.5</v>
+      </c>
+      <c r="R30">
         <v>3</v>
       </c>
-      <c r="P30">
+      <c r="S30">
         <v>-10</v>
       </c>
-      <c r="Q30">
+      <c r="T30">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -2200,16 +2480,25 @@
         <v>5.4</v>
       </c>
       <c r="O31">
+        <v>9.1</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <v>12.5</v>
+      </c>
+      <c r="R31">
         <v>0</v>
       </c>
-      <c r="P31">
+      <c r="S31">
         <v>-17</v>
       </c>
-      <c r="Q31">
+      <c r="T31">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2254,16 +2543,25 @@
         <v>5.4</v>
       </c>
       <c r="O32">
+        <v>9.1</v>
+      </c>
+      <c r="P32">
+        <v>6</v>
+      </c>
+      <c r="Q32">
+        <v>12.5</v>
+      </c>
+      <c r="R32">
         <v>59</v>
       </c>
-      <c r="P32">
+      <c r="S32">
         <v>47</v>
       </c>
-      <c r="Q32">
+      <c r="T32">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2308,12 +2606,21 @@
         <v>5.4</v>
       </c>
       <c r="O33">
-        <v>18</v>
+        <v>9.1</v>
       </c>
       <c r="P33">
         <v>6</v>
       </c>
       <c r="Q33">
+        <v>12.5</v>
+      </c>
+      <c r="R33">
+        <v>18</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
         <v>33</v>
       </c>
     </row>
